--- a/Cyber Resilience Analysis/Log_Book.xlsx
+++ b/Cyber Resilience Analysis/Log_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_w_mwangi_uu_nl/Documents/PhD_Agrippina/PUBLICATIONS/JOURNAL PAPER 4/TESTBED/JP4/Cyber Resilience Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{2CC28790-C123-4316-8B9F-C78B85E65288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11491B33-0662-4B5A-A9F7-6DAAD6B4EA4D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{2CC28790-C123-4316-8B9F-C78B85E65288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B85245C-B11C-4233-A7C5-719CCB66B15D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FB51F84-163C-4E40-BC5D-ADC1731525B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3FB51F84-163C-4E40-BC5D-ADC1731525B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_Data" sheetId="3" r:id="rId1"/>
@@ -483,7 +483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F8346-B0D0-4D08-B750-D4CEA047E1F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -496,7 +498,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2346E-60F9-46C6-BA16-129C0BAA81D3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
